--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>{Form=6}</t>
   </si>
@@ -33,6 +33,12 @@
     <t>{Node=72}</t>
   </si>
   <si>
+    <t>{Value=6}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：{Node=73}</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t xml:space="preserve">    {Node=77}</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t>{Node=131}</t>
   </si>
   <si>
@@ -60,18 +69,27 @@
     <t>分区采矿权情况（个）</t>
   </si>
   <si>
-    <t>{Node=134}</t>
-  </si>
-  <si>
-    <t>{Node=135}</t>
-  </si>
-  <si>
-    <t>{Node=136}</t>
+    <t>宗数</t>
+  </si>
+  <si>
+    <t>新立</t>
+  </si>
+  <si>
+    <t>注销</t>
   </si>
   <si>
     <t>{Area=0}</t>
   </si>
   <si>
+    <t>{Value=6 Node=72}</t>
+  </si>
+  <si>
+    <t>{Value=6 Node=73}</t>
+  </si>
+  <si>
+    <t>{Value=6 Node=74}</t>
+  </si>
+  <si>
     <t>{Area=1}</t>
   </si>
   <si>
@@ -100,6 +118,18 @@
   </si>
   <si>
     <t>{Node=140}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=137}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=138}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=139}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=140}</t>
   </si>
 </sst>
 </file>
@@ -108,11 +138,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,17 +151,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,85 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +195,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -243,23 +255,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +331,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +457,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,96 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,54 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +554,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,15 +631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,137 +651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,7 +797,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,14 +1143,14 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -1113,7 +1178,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1121,102 +1186,128 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1224,77 +1315,113 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="14.25" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1303,57 +1430,105 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
@@ -137,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,106 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -181,113 +281,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,11 +527,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,30 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,17 +587,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,137 +644,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,25 +793,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1178,7 +1156,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1228,8 +1206,8 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
@@ -1253,7 +1231,7 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
@@ -1261,8 +1239,8 @@
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
@@ -1280,16 +1258,16 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
@@ -1307,7 +1285,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1390,16 +1368,16 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2"/>
@@ -1421,7 +1399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1432,16 +1410,16 @@
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1449,16 +1427,16 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1466,16 +1444,16 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1483,16 +1461,16 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1500,33 +1478,33 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+    <row r="28" ht="14.25" spans="1:5">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
@@ -16,54 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
-  <si>
-    <t>{Form=6}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>{Form=7} 7</t>
   </si>
   <si>
     <t>采矿权情况（个）</t>
   </si>
   <si>
-    <t>{Quarter}季度</t>
-  </si>
-  <si>
-    <t>{Rate}同比%</t>
-  </si>
-  <si>
-    <t>{Node=72}</t>
-  </si>
-  <si>
-    <t>{Value=6}</t>
+    <t>{Quarter}</t>
+  </si>
+  <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>{Node=58}</t>
+  </si>
+  <si>
+    <t>{Value=5}</t>
   </si>
   <si>
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Node=73}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         {Node=74}</t>
-  </si>
-  <si>
-    <t>{Node=75}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=77}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>{Node=131}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=132}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=133}</t>
+    <t xml:space="preserve">    其中：{Node=59}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=60}</t>
+  </si>
+  <si>
+    <t>采矿权出让</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=61}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=62}</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>采矿权转让</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=63}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=64}</t>
   </si>
   <si>
     <t>分区采矿权情况（个）</t>
@@ -78,58 +78,76 @@
     <t>注销</t>
   </si>
   <si>
+    <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=5 Node=58}</t>
+  </si>
+  <si>
+    <t>{Value=5 Node=59}</t>
+  </si>
+  <si>
+    <t>{Value=5 Node=60}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
+  </si>
+  <si>
+    <t>{Area=3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
+  </si>
+  <si>
+    <t>{Area=5}</t>
+  </si>
+  <si>
+    <t>矿产三费收缴情况（万元）</t>
+  </si>
+  <si>
+    <t>{Node=137}</t>
+  </si>
+  <si>
+    <t>{Node=138}</t>
+  </si>
+  <si>
+    <t>{Node=139}</t>
+  </si>
+  <si>
+    <t>{Node=140}</t>
+  </si>
+  <si>
     <t>{Area=0}</t>
   </si>
   <si>
-    <t>{Value=6 Node=72}</t>
-  </si>
-  <si>
-    <t>{Value=6 Node=73}</t>
-  </si>
-  <si>
-    <t>{Value=6 Node=74}</t>
-  </si>
-  <si>
-    <t>{Area=1}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
+    <t>{value=5 Node=137}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=138}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=139}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=140}</t>
   </si>
   <si>
     <t>{Area=6}</t>
-  </si>
-  <si>
-    <t>矿产三费收缴情况（万元）</t>
-  </si>
-  <si>
-    <t>{Node=137}</t>
-  </si>
-  <si>
-    <t>{Node=138}</t>
-  </si>
-  <si>
-    <t>{Node=139}</t>
-  </si>
-  <si>
-    <t>{Node=140}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=137}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=138}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=139}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=140}</t>
   </si>
 </sst>
 </file>
@@ -142,13 +160,46 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0099FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -158,15 +209,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +262,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -195,39 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,69 +352,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,198 +362,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -522,22 +584,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +624,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -568,6 +653,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,40 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,159 +715,198 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,6 +965,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1119,22 +1230,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="22" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1284,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -1186,7 +1297,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
@@ -1199,7 +1310,7 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
@@ -1208,11 +1319,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1221,7 +1332,7 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
@@ -1231,8 +1342,10 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
@@ -1241,7 +1354,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
@@ -1254,20 +1367,20 @@
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
@@ -1285,227 +1398,157 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="22.5" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="22.5" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="22.5" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="22.5" spans="1:5">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="22.5" spans="1:5">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="22.5" spans="1:5">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="22.5" spans="1:4">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" spans="1:4">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" spans="1:4">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="B23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" spans="1:4">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>37</v>
+      <c r="B24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1516,34 +1559,146 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/矿业权市场-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
-    <t>{Form=6}</t>
+    <t>{Form=7} 7</t>
   </si>
   <si>
     <t>采矿权情况（个）</t>
   </si>
   <si>
-    <t>{Quarter}季度</t>
-  </si>
-  <si>
-    <t>{Rate}同比%</t>
-  </si>
-  <si>
-    <t>{Node=72}</t>
-  </si>
-  <si>
-    <t>{Value=6}</t>
+    <t>{Quarter}</t>
+  </si>
+  <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>{Node=58}</t>
+  </si>
+  <si>
+    <t>{Value=5}</t>
   </si>
   <si>
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Node=73}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         {Node=74}</t>
-  </si>
-  <si>
-    <t>{Node=75}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=77}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>{Node=131}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=132}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=133}</t>
+    <t xml:space="preserve">    其中：{Node=59}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=60}</t>
+  </si>
+  <si>
+    <t>采矿权出让</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=61}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=62}</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>采矿权转让</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=63}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=64}</t>
   </si>
   <si>
     <t>分区采矿权情况（个）</t>
@@ -78,58 +78,58 @@
     <t>注销</t>
   </si>
   <si>
-    <t>{Area=0}</t>
-  </si>
-  <si>
-    <t>{Value=6 Node=72}</t>
-  </si>
-  <si>
-    <t>{Value=6 Node=73}</t>
-  </si>
-  <si>
-    <t>{Value=6 Node=74}</t>
-  </si>
-  <si>
     <t>{Area=1}</t>
   </si>
   <si>
+    <t>{Value=5 Node=58}</t>
+  </si>
+  <si>
+    <t>{Value=5 Node=59}</t>
+  </si>
+  <si>
+    <t>{Value=5 Node=60}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
+  </si>
+  <si>
     <t>{Area=3}</t>
   </si>
   <si>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
+  </si>
+  <si>
     <t>{Area=5}</t>
   </si>
   <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
-  </si>
-  <si>
     <t>矿产三费收缴情况（万元）</t>
   </si>
   <si>
-    <t>{Node=137}</t>
-  </si>
-  <si>
-    <t>{Node=138}</t>
-  </si>
-  <si>
-    <t>{Node=139}</t>
-  </si>
-  <si>
-    <t>{Node=140}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=137}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=138}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=139}</t>
-  </si>
-  <si>
-    <t>{value=5 Node=140}</t>
+    <t>三费合计</t>
+  </si>
+  <si>
+    <t>出让金</t>
+  </si>
+  <si>
+    <t>治理备用金</t>
+  </si>
+  <si>
+    <t>资源补偿费</t>
   </si>
 </sst>
 </file>
@@ -137,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +152,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0099FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,6 +172,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -173,7 +215,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,100 +306,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,22 +320,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,193 +330,211 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,37 +552,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +582,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -587,29 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,19 +674,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,138 +695,171 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,6 +918,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1119,22 +1183,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B27" sqref="B27:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="22" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1237,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -1186,7 +1250,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
@@ -1199,7 +1263,7 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
@@ -1208,11 +1272,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1221,7 +1285,7 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
@@ -1231,8 +1295,10 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
@@ -1241,7 +1307,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
@@ -1254,20 +1320,20 @@
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
@@ -1292,258 +1358,281 @@
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="22.5" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="22.5" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="22.5" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="22.5" spans="1:5">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="22.5" spans="1:5">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="22.5" spans="1:5">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="22.5" spans="1:4">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" spans="1:4">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" spans="1:4">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="B23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" spans="1:4">
+      <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
